--- a/results/KNN/375Hz_3classes/res_hyperopt.xlsx
+++ b/results/KNN/375Hz_3classes/res_hyperopt.xlsx
@@ -472,7 +472,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>{'leaf_size': 46, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 74, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -493,7 +493,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>{'leaf_size': 62, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 31, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -514,7 +514,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>{'leaf_size': 38, 'n_neighbors': 6, 'p': 1}</t>
+          <t>{'leaf_size': 67, 'n_neighbors': 6, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -535,7 +535,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>{'leaf_size': 88, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 42, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>{'leaf_size': 25, 'n_neighbors': 2, 'p': 1}</t>
+          <t>{'leaf_size': 37, 'n_neighbors': 2, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -577,7 +577,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>{'leaf_size': 80, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 54, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -598,7 +598,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>{'leaf_size': 73, 'n_neighbors': 4, 'p': 1}</t>
+          <t>{'leaf_size': 18, 'n_neighbors': 4, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -619,7 +619,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>{'leaf_size': 22, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 84, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -640,7 +640,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>{'leaf_size': 93, 'n_neighbors': 1, 'p': 3}</t>
+          <t>{'leaf_size': 62, 'n_neighbors': 1, 'p': 3}</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{'leaf_size': 76, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 83, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -682,7 +682,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>{'leaf_size': 71, 'n_neighbors': 1, 'p': 4}</t>
+          <t>{'leaf_size': 49, 'n_neighbors': 1, 'p': 4}</t>
         </is>
       </c>
     </row>
@@ -703,7 +703,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>{'leaf_size': 14, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 66, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>{'leaf_size': 24, 'n_neighbors': 36, 'p': 1}</t>
+          <t>{'leaf_size': 32, 'n_neighbors': 36, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>{'leaf_size': 7, 'n_neighbors': 1, 'p': 1}</t>
+          <t>{'leaf_size': 73, 'n_neighbors': 1, 'p': 1}</t>
         </is>
       </c>
     </row>
@@ -766,7 +766,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>{'leaf_size': 32, 'n_neighbors': 2, 'p': 1}</t>
+          <t>{'leaf_size': 63, 'n_neighbors': 2, 'p': 1}</t>
         </is>
       </c>
     </row>
